--- a/Contact Info.xlsx
+++ b/Contact Info.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
